--- a/MarsCompetition/ExcelData/ShareSkill.xlsx
+++ b/MarsCompetition/ExcelData/ShareSkill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Industry Connect\Projects\SkillShare and Manage Listing\MarsCompetitionTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Industry Connect\Projects\SkillShare and Manage Listing\MarsCompetitionTask\MarsCompetition\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA3ED25-743E-4605-88F5-C13FC6BD515A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26854A2C-DA2A-48AE-A38E-BA08BF7F7916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,6 +554,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -592,15 +596,15 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>

--- a/MarsCompetition/ExcelData/ShareSkill.xlsx
+++ b/MarsCompetition/ExcelData/ShareSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Industry Connect\Projects\SkillShare and Manage Listing\MarsCompetitionTask\MarsCompetition\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26854A2C-DA2A-48AE-A38E-BA08BF7F7916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A595AB-CA1A-4EE4-835D-B88DAF04D907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,13 +204,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -596,7 +595,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,19 +684,19 @@
       <c r="G2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="5">
-        <v>44626</v>
-      </c>
-      <c r="I2" s="5">
-        <v>44635</v>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>0.75</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>0.83333333333333337</v>
       </c>
       <c r="M2" s="4" t="s">

--- a/MarsCompetition/ExcelData/ShareSkill.xlsx
+++ b/MarsCompetition/ExcelData/ShareSkill.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Industry Connect\Projects\SkillShare and Manage Listing\MarsCompetitionTask\MarsCompetition\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A595AB-CA1A-4EE4-835D-B88DAF04D907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2DD34F-E9DA-4C34-AD1E-FEB7422BDD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
     <sheet name="SignIn" sheetId="2" r:id="rId2"/>
     <sheet name="ShareSkill" sheetId="3" r:id="rId3"/>
+    <sheet name="EditShareSkill" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>FirstName</t>
   </si>
@@ -140,7 +141,10 @@
     <t>I would like to provide basic guidance for the beginners</t>
   </si>
   <si>
-    <t>Sun</t>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Edited:I would like to provide basic guidance for the beginners</t>
   </si>
 </sst>
 </file>
@@ -204,13 +208,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -594,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358A818C-E444-47D7-83E1-62624258AFC5}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,6 +613,7 @@
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
@@ -684,11 +690,138 @@
       <c r="G2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
+        <v>44637</v>
+      </c>
+      <c r="I2" s="6">
+        <v>44650</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2">
-        <v>8</v>
+      <c r="N2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B3A298-13A6-4397-8964-F2B55A5EB464}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="6">
+        <v>44637</v>
+      </c>
+      <c r="I2" s="6">
+        <v>44650</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>37</v>
